--- a/proposal/Excel-Gantt-Chart.xlsx
+++ b/proposal/Excel-Gantt-Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2363820-D28C-431C-A884-A29164605C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC6814B-9441-4423-89B9-5ABFAC6A54A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>`</t>
   </si>
@@ -180,13 +180,19 @@
     <t>Yes: ENASE, SACI</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>PAPER OUTPUT</t>
   </si>
   <si>
     <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Yes: ICSME</t>
+  </si>
+  <si>
+    <t>Yes: ENASE</t>
+  </si>
+  <si>
+    <t>Yes: ICSE</t>
   </si>
 </sst>
 </file>
@@ -623,17 +629,11 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,13 +653,22 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,9 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,7 +824,7 @@
                 <c:pt idx="3">
                   <c:v>43525</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -1407,7 +1413,7 @@
                         <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6300375B-25FC-4426-AB15-321B9DCE4ACF}" type="CELLRANGE">
+                    <a:fld id="{1A7ED552-4066-46BE-B2EE-6F1A55532722}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1000">
@@ -1450,7 +1456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F228890-3D26-42FC-8363-D3B88B80547D}" type="CELLRANGE">
+                    <a:fld id="{CC986FE5-C8EE-4243-A68B-9F17D440AA9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04D50660-EA5F-404E-962E-36D64922E25A}" type="CELLRANGE">
+                    <a:fld id="{13F8749D-88A5-4189-87BB-E78BC6706825}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3398,7 +3404,7 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,7 +3433,7 @@
     <row r="1" spans="1:22" s="8" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -3458,9 +3464,9 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3478,7 +3484,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="23">
-        <f>DAYS360(B5,C5,FALSE)</f>
+        <f t="shared" ref="F5:F12" si="0">DAYS360(B5,C5,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G5" s="11"/>
@@ -3512,7 +3518,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="23">
-        <f>DAYS360(B6,C6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -3530,7 +3536,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="23">
-        <f>DAYS360(B7,C7,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -3548,25 +3554,25 @@
         <v>26</v>
       </c>
       <c r="F8" s="23">
-        <f>DAYS360(B8,C8,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>43709</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>43862</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="23">
-        <f>DAYS360(B9,C9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -3581,10 +3587,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="23">
-        <f>DAYS360(B10,C10,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -3599,10 +3605,10 @@
         <v>19</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="23">
-        <f>DAYS360(B11,C11,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
@@ -3620,7 +3626,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="23">
-        <f>DAYS360(B12,C12,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -3744,11 +3750,11 @@
     </row>
     <row r="3" spans="2:19" s="8" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:19" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4067,50 +4073,50 @@
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
       <c r="T20" s="28"/>
       <c r="U20" s="8"/>
       <c r="V20" s="16"/>
@@ -4127,90 +4133,90 @@
     <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
     </row>
     <row r="22" spans="1:31" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
     </row>
     <row r="23" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
     </row>
     <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
     </row>
     <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D31" s="9" t="s">

--- a/proposal/Excel-Gantt-Chart.xlsx
+++ b/proposal/Excel-Gantt-Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC6814B-9441-4423-89B9-5ABFAC6A54A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B478D667-A341-48C5-B5F1-ED0D2B2F5053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>`</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Yes: ICSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific report nr. 1 with the intermediate results of the research </t>
+  </si>
+  <si>
+    <t>doctoral thesis completion</t>
+  </si>
+  <si>
+    <t>scientific report nr. 2 with the intermediate result of the research</t>
   </si>
 </sst>
 </file>
@@ -380,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -549,12 +558,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,22 +658,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,12 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -677,6 +720,30 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,12 +753,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD24726"/>
+      <color rgb="FFD24626"/>
       <color rgb="FF4F6228"/>
       <color rgb="FFA03912"/>
-      <color rgb="FFD24626"/>
       <color rgb="FF777777"/>
       <color rgb="FF30966D"/>
-      <color rgb="FFD24726"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF52B161"/>
     </mruColors>
@@ -765,13 +832,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Excel Gantt Chart '!$D$5:$D$14</c15:sqref>
+                    <c15:sqref>'Excel Gantt Chart '!$D$5:$D$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Excel Gantt Chart '!$D$5:$D$13</c:f>
+              <c:f>'Excel Gantt Chart '!$D$5:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Stage 1</c:v>
                 </c:pt>
@@ -790,10 +857,10 @@
                 <c:pt idx="5">
                   <c:v>Stage 6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Stage 7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Stage 8</c:v>
                 </c:pt>
               </c:strCache>
@@ -804,14 +871,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Excel Gantt Chart '!$B$5:$B$14</c15:sqref>
+                    <c15:sqref>'Excel Gantt Chart '!$B$5:$B$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Excel Gantt Chart '!$B$5:$B$13</c:f>
+              <c:f>'Excel Gantt Chart '!$B$5:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43398</c:v>
                 </c:pt>
@@ -831,10 +898,16 @@
                   <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,13 +947,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Excel Gantt Chart '!$D$5:$D$14</c15:sqref>
+                    <c15:sqref>'Excel Gantt Chart '!$D$5:$D$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Excel Gantt Chart '!$D$5:$D$13</c:f>
+              <c:f>'Excel Gantt Chart '!$D$5:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Stage 1</c:v>
                 </c:pt>
@@ -899,10 +972,10 @@
                 <c:pt idx="5">
                   <c:v>Stage 6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Stage 7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Stage 8</c:v>
                 </c:pt>
               </c:strCache>
@@ -913,14 +986,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Excel Gantt Chart '!$F$5:$F$14</c15:sqref>
+                    <c15:sqref>'Excel Gantt Chart '!$F$5:$F$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Excel Gantt Chart '!$F$5:$F$13</c:f>
+              <c:f>'Excel Gantt Chart '!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -939,10 +1012,10 @@
                 <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -1118,6 +1191,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1413,7 +1487,7 @@
                         <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{1A7ED552-4066-46BE-B2EE-6F1A55532722}" type="CELLRANGE">
+                    <a:fld id="{CBCBA5B6-E296-44B7-B315-7A83DBB53052}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1000">
@@ -1456,7 +1530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC986FE5-C8EE-4243-A68B-9F17D440AA9A}" type="CELLRANGE">
+                    <a:fld id="{E5AD0DF8-50A6-4FE7-8650-7E01982DF23C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1490,7 +1564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13F8749D-88A5-4189-87BB-E78BC6706825}" type="CELLRANGE">
+                    <a:fld id="{6E5DDA7B-B082-4FB8-BE77-63AA7DA2FCB4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2560,15 +2634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>656169</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>381003</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>624416</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>243418</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2597,6 +2671,252 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33023</cdr:x>
+      <cdr:y>0.61838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4106</cdr:x>
+      <cdr:y>0.85905</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A9C8BC-BF7B-4594-81C8-72757EE6AA62}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3757081" y="2349498"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34326</cdr:x>
+      <cdr:y>0.66574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42363</cdr:x>
+      <cdr:y>0.90641</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEA7DBD-C982-4B28-9C2E-8293DE8617B9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3905248" y="2529415"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47842</cdr:x>
+      <cdr:y>0.87549</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50977</cdr:x>
+      <cdr:y>0.95265</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5404919F-333D-4ECF-8DA9-D4AC8264FC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5443007" y="3326341"/>
+          <a:ext cx="356658" cy="293157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="D24726"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35516</cdr:x>
+      <cdr:y>0.63231</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38651</cdr:x>
+      <cdr:y>0.76323</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EE37A7-69BA-4A41-BD72-E43E604511F9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4040717" y="2402416"/>
+          <a:ext cx="356658" cy="497416"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="D24726"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="D24726"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3401,10 +3721,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,37 +3774,37 @@
     </row>
     <row r="3" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="45">
         <v>43398</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="45">
         <v>43434</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="23">
-        <f t="shared" ref="F5:F12" si="0">DAYS360(B5,C5,FALSE)</f>
+      <c r="F5" s="46">
+        <f t="shared" ref="F5:F10" si="0">DAYS360(B5,C5,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G5" s="11"/>
@@ -3505,144 +3825,163 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="45">
         <v>43434</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="45">
         <v>43464</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="46">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="45">
         <v>43466</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="45">
         <v>43525</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="46">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="45">
         <v>43525</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="45">
         <v>43709</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="46">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="45">
         <v>43709</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="45">
         <v>43862</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="45">
         <v>43862</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="45">
         <v>44013</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
-        <v>43983</v>
-      </c>
-      <c r="C11" s="21">
-        <v>44197</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
+    <row r="11" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
-        <v>44166</v>
-      </c>
-      <c r="C12" s="24">
-        <v>44317</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="B12" s="45">
+        <v>43983</v>
+      </c>
+      <c r="C12" s="45">
+        <v>44197</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="46">
+        <f>DAYS360(B12,C12,FALSE)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="45">
+        <v>44166</v>
+      </c>
+      <c r="C13" s="45">
+        <v>44317</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="46">
+        <f>DAYS360(B13,C13,FALSE)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="45">
+        <v>44317</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45">
+        <v>44440</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:22" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -3688,7 +4027,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="30"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T18" s="19"/>
@@ -3696,16 +4035,27 @@
     <row r="19" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="21"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="11">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3750,11 +4100,11 @@
     </row>
     <row r="3" spans="2:19" s="8" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:19" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3798,7 +4148,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="2:19" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>43525</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -3824,7 +4174,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:19" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>43525</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3850,7 +4200,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:19" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>43862</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3876,7 +4226,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>44013</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3902,7 +4252,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>44197</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4073,51 +4423,51 @@
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="40" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="28"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="24"/>
       <c r="U20" s="8"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -4131,92 +4481,92 @@
       <c r="AE20" s="16"/>
     </row>
     <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="H21" s="46" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="1:31" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
     </row>
     <row r="23" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
     </row>
     <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
     </row>
     <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D31" s="9" t="s">
